--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H2">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I2">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J2">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03520433333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N2">
-        <v>0.105613</v>
+        <v>0.189772</v>
       </c>
       <c r="O2">
-        <v>0.005036388194404308</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P2">
-        <v>0.005036388194404307</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q2">
-        <v>0.529340276975</v>
+        <v>1.178449518238667</v>
       </c>
       <c r="R2">
-        <v>4.764062492775</v>
+        <v>10.606045664148</v>
       </c>
       <c r="S2">
-        <v>0.000356455584144566</v>
+        <v>0.01243334608340886</v>
       </c>
       <c r="T2">
-        <v>0.0003938100651306813</v>
+        <v>0.01393823707782366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H3">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I3">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J3">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.1703</v>
       </c>
       <c r="O3">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P3">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q3">
-        <v>0.8535563725</v>
+        <v>1.057531948633333</v>
       </c>
       <c r="R3">
-        <v>7.682007352500001</v>
+        <v>9.5177875377</v>
       </c>
       <c r="S3">
-        <v>0.0005747813808889018</v>
+        <v>0.01115759352277749</v>
       </c>
       <c r="T3">
-        <v>0.0006350151410503918</v>
+        <v>0.01250807165626841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H4">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I4">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J4">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2486943333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N4">
-        <v>0.7460829999999999</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O4">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P4">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q4">
-        <v>3.739423952225</v>
+        <v>4.509203210291</v>
       </c>
       <c r="R4">
-        <v>33.654815570025</v>
+        <v>40.582828892619</v>
       </c>
       <c r="S4">
-        <v>0.00251811284203015</v>
+        <v>0.04757478636654824</v>
       </c>
       <c r="T4">
-        <v>0.002781996485497941</v>
+        <v>0.05333308080184616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.036225</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H5">
-        <v>45.10867500000001</v>
+        <v>218.277179</v>
       </c>
       <c r="I5">
-        <v>0.07077603440906459</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J5">
-        <v>0.07819295295152685</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.649330666666667</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N5">
-        <v>19.947992</v>
+        <v>0.189772</v>
       </c>
       <c r="O5">
-        <v>0.951263872921625</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P5">
-        <v>0.9512638729216248</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q5">
-        <v>99.98083200340001</v>
+        <v>4.602544090354222</v>
       </c>
       <c r="R5">
-        <v>899.8274880306001</v>
+        <v>41.422896813188</v>
       </c>
       <c r="S5">
-        <v>0.06732668460200097</v>
+        <v>0.04855958838614646</v>
       </c>
       <c r="T5">
-        <v>0.07438213125984783</v>
+        <v>0.05443707999335876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>218.277179</v>
       </c>
       <c r="I6">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J6">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03520433333333333</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N6">
-        <v>0.105613</v>
+        <v>0.1703</v>
       </c>
       <c r="O6">
-        <v>0.005036388194404308</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P6">
-        <v>0.005036388194404307</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q6">
-        <v>2.561434189525222</v>
+        <v>4.130289287077777</v>
       </c>
       <c r="R6">
-        <v>23.052907705727</v>
+        <v>37.1726035837</v>
       </c>
       <c r="S6">
-        <v>0.00172485933904893</v>
+        <v>0.04357701822271327</v>
       </c>
       <c r="T6">
-        <v>0.001905614609130757</v>
+        <v>0.04885143605415444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>218.277179</v>
       </c>
       <c r="I7">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J7">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05676666666666667</v>
+        <v>0.242047</v>
       </c>
       <c r="N7">
-        <v>0.1703</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O7">
-        <v>0.008121130064547486</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P7">
-        <v>0.008121130064547486</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q7">
-        <v>4.130289287077777</v>
+        <v>17.61111211513767</v>
       </c>
       <c r="R7">
-        <v>37.1726035837</v>
+        <v>158.500009036239</v>
       </c>
       <c r="S7">
-        <v>0.002781319964777373</v>
+        <v>0.1858077486157324</v>
       </c>
       <c r="T7">
-        <v>0.003072786190478142</v>
+        <v>0.2082973025707561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>72.75905966666666</v>
+        <v>36.272704</v>
       </c>
       <c r="H8">
-        <v>218.277179</v>
+        <v>108.818112</v>
       </c>
       <c r="I8">
-        <v>0.3424794262216203</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J8">
-        <v>0.378369286793261</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2486943333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N8">
-        <v>0.7460829999999999</v>
+        <v>0.189772</v>
       </c>
       <c r="O8">
-        <v>0.03557860881942326</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P8">
-        <v>0.03557860881942326</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q8">
-        <v>18.09476583776189</v>
+        <v>2.294514527829333</v>
       </c>
       <c r="R8">
-        <v>162.852892539857</v>
+        <v>20.650630750464</v>
       </c>
       <c r="S8">
-        <v>0.01218494153423956</v>
+        <v>0.02420849835006153</v>
       </c>
       <c r="T8">
-        <v>0.0134618528441016</v>
+        <v>0.02713861474116941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>72.75905966666666</v>
+        <v>36.272704</v>
       </c>
       <c r="H9">
-        <v>218.277179</v>
+        <v>108.818112</v>
       </c>
       <c r="I9">
-        <v>0.3424794262216203</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J9">
-        <v>0.378369286793261</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>6.649330666666667</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N9">
-        <v>19.947992</v>
+        <v>0.1703</v>
       </c>
       <c r="O9">
-        <v>0.951263872921625</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P9">
-        <v>0.9512638729216248</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q9">
-        <v>483.7990467193964</v>
+        <v>2.059080497066667</v>
       </c>
       <c r="R9">
-        <v>4354.191420474568</v>
+        <v>18.5317244736</v>
       </c>
       <c r="S9">
-        <v>0.3257883053835545</v>
+        <v>0.02172452874510191</v>
       </c>
       <c r="T9">
-        <v>0.3599290331495505</v>
+        <v>0.02435399368938068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H10">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I10">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J10">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.03520433333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N10">
-        <v>0.105613</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O10">
-        <v>0.005036388194404308</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P10">
-        <v>0.005036388194404307</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q10">
-        <v>1.143161425310445</v>
+        <v>8.779699185087999</v>
       </c>
       <c r="R10">
-        <v>10.288452827794</v>
+        <v>79.01729266579198</v>
       </c>
       <c r="S10">
-        <v>0.0007698002425948292</v>
+        <v>0.09263106886375244</v>
       </c>
       <c r="T10">
-        <v>0.0008504708501099951</v>
+        <v>0.1038428263746364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>32.47217933333334</v>
+        <v>84.7905925</v>
       </c>
       <c r="H11">
-        <v>97.416538</v>
+        <v>169.581185</v>
       </c>
       <c r="I11">
-        <v>0.1528476783124299</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J11">
-        <v>0.1688652298595476</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,33 +1116,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.05676666666666667</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N11">
-        <v>0.1703</v>
+        <v>0.189772</v>
       </c>
       <c r="O11">
-        <v>0.008121130064547486</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P11">
-        <v>0.008121130064547486</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q11">
-        <v>1.843337380155556</v>
+        <v>5.363626773303333</v>
       </c>
       <c r="R11">
-        <v>16.5900364214</v>
+        <v>32.18176063982</v>
       </c>
       <c r="S11">
-        <v>0.001241295875639357</v>
+        <v>0.05658946514263149</v>
       </c>
       <c r="T11">
-        <v>0.001371376495069094</v>
+        <v>0.04229257760937789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.47217933333334</v>
+        <v>84.7905925</v>
       </c>
       <c r="H12">
-        <v>97.416538</v>
+        <v>169.581185</v>
       </c>
       <c r="I12">
-        <v>0.1528476783124299</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J12">
-        <v>0.1688652298595476</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2486943333333333</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N12">
-        <v>0.7460829999999999</v>
+        <v>0.1703</v>
       </c>
       <c r="O12">
-        <v>0.03557860881942326</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P12">
-        <v>0.03557860881942326</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q12">
-        <v>8.075646991183778</v>
+        <v>4.813279300916667</v>
       </c>
       <c r="R12">
-        <v>72.68082292065399</v>
+        <v>28.8796758055</v>
       </c>
       <c r="S12">
-        <v>0.005438107755634987</v>
+        <v>0.05078297069003933</v>
       </c>
       <c r="T12">
-        <v>0.006007989956374834</v>
+        <v>0.0379530487473234</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.47217933333334</v>
+        <v>84.7905925</v>
       </c>
       <c r="H13">
-        <v>97.416538</v>
+        <v>169.581185</v>
       </c>
       <c r="I13">
-        <v>0.1528476783124299</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J13">
-        <v>0.1688652298595476</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>6.649330666666667</v>
+        <v>0.242047</v>
       </c>
       <c r="N13">
-        <v>19.947992</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O13">
-        <v>0.951263872921625</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P13">
-        <v>0.9512638729216248</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q13">
-        <v>215.9182578546329</v>
+        <v>20.5233085428475</v>
       </c>
       <c r="R13">
-        <v>1943.264320691696</v>
+        <v>123.139851257085</v>
       </c>
       <c r="S13">
-        <v>0.1453984744385607</v>
+        <v>0.2165331598346203</v>
       </c>
       <c r="T13">
-        <v>0.1606353925579936</v>
+        <v>0.1618277438075758</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.454654</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H14">
-        <v>120.909308</v>
+        <v>147.971473</v>
       </c>
       <c r="I14">
-        <v>0.2845621604952103</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J14">
-        <v>0.209588418011517</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03520433333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N14">
-        <v>0.105613</v>
+        <v>0.189772</v>
       </c>
       <c r="O14">
-        <v>0.005036388194404308</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P14">
-        <v>0.005036388194404307</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q14">
-        <v>2.128265790967333</v>
+        <v>3.120093597128444</v>
       </c>
       <c r="R14">
-        <v>12.769594745804</v>
+        <v>28.080842374156</v>
       </c>
       <c r="S14">
-        <v>0.001433165505692261</v>
+        <v>0.03291885049408571</v>
       </c>
       <c r="T14">
-        <v>0.001055568634157079</v>
+        <v>0.03690323903460437</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.454654</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H15">
-        <v>120.909308</v>
+        <v>147.971473</v>
       </c>
       <c r="I15">
-        <v>0.2845621604952103</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J15">
-        <v>0.209588418011517</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,27 +1370,27 @@
         <v>0.1703</v>
       </c>
       <c r="O15">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P15">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q15">
-        <v>3.431809192066666</v>
+        <v>2.799949094655556</v>
       </c>
       <c r="R15">
-        <v>20.5908551524</v>
+        <v>25.1995418519</v>
       </c>
       <c r="S15">
-        <v>0.002310966316830239</v>
+        <v>0.02954113483096978</v>
       </c>
       <c r="T15">
-        <v>0.001702094802694277</v>
+        <v>0.03311669586447487</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,362 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>49.32382433333333</v>
+      </c>
+      <c r="H16">
+        <v>147.971473</v>
+      </c>
+      <c r="I16">
+        <v>0.1884202271764661</v>
+      </c>
+      <c r="J16">
+        <v>0.2112259868763291</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>60.454654</v>
-      </c>
-      <c r="H16">
-        <v>120.909308</v>
-      </c>
-      <c r="I16">
-        <v>0.2845621604952103</v>
-      </c>
-      <c r="J16">
-        <v>0.209588418011517</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2486943333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N16">
-        <v>0.7460829999999999</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O16">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P16">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q16">
-        <v>15.03472987342733</v>
+        <v>11.93868370841033</v>
       </c>
       <c r="R16">
-        <v>90.20837924056399</v>
+        <v>107.448153375693</v>
       </c>
       <c r="S16">
-        <v>0.01012432579306903</v>
+        <v>0.1259602418514106</v>
       </c>
       <c r="T16">
-        <v>0.007456864337513528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>60.454654</v>
-      </c>
-      <c r="H17">
-        <v>120.909308</v>
-      </c>
-      <c r="I17">
-        <v>0.2845621604952103</v>
-      </c>
-      <c r="J17">
-        <v>0.209588418011517</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>6.649330666666667</v>
-      </c>
-      <c r="N17">
-        <v>19.947992</v>
-      </c>
-      <c r="O17">
-        <v>0.951263872921625</v>
-      </c>
-      <c r="P17">
-        <v>0.9512638729216248</v>
-      </c>
-      <c r="Q17">
-        <v>401.9829847849227</v>
-      </c>
-      <c r="R17">
-        <v>2411.897908709536</v>
-      </c>
-      <c r="S17">
-        <v>0.2706937028796188</v>
-      </c>
-      <c r="T17">
-        <v>0.1993738902371521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>31.72585433333333</v>
-      </c>
-      <c r="H18">
-        <v>95.17756299999999</v>
-      </c>
-      <c r="I18">
-        <v>0.1493347005616749</v>
-      </c>
-      <c r="J18">
-        <v>0.1649841123841474</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.03520433333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.105613</v>
-      </c>
-      <c r="O18">
-        <v>0.005036388194404308</v>
-      </c>
-      <c r="P18">
-        <v>0.005036388194404307</v>
-      </c>
-      <c r="Q18">
-        <v>1.116887551235444</v>
-      </c>
-      <c r="R18">
-        <v>10.051987961119</v>
-      </c>
-      <c r="S18">
-        <v>0.0007521075229237219</v>
-      </c>
-      <c r="T18">
-        <v>0.0008309240358757935</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>31.72585433333333</v>
-      </c>
-      <c r="H19">
-        <v>95.17756299999999</v>
-      </c>
-      <c r="I19">
-        <v>0.1493347005616749</v>
-      </c>
-      <c r="J19">
-        <v>0.1649841123841474</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05676666666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.1703</v>
-      </c>
-      <c r="O19">
-        <v>0.008121130064547486</v>
-      </c>
-      <c r="P19">
-        <v>0.008121130064547486</v>
-      </c>
-      <c r="Q19">
-        <v>1.800970997655555</v>
-      </c>
-      <c r="R19">
-        <v>16.2087389789</v>
-      </c>
-      <c r="S19">
-        <v>0.001212766526411614</v>
-      </c>
-      <c r="T19">
-        <v>0.001339857435255581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>31.72585433333333</v>
-      </c>
-      <c r="H20">
-        <v>95.17756299999999</v>
-      </c>
-      <c r="I20">
-        <v>0.1493347005616749</v>
-      </c>
-      <c r="J20">
-        <v>0.1649841123841474</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.2486943333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.7460829999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.03557860881942326</v>
-      </c>
-      <c r="P20">
-        <v>0.03557860881942326</v>
-      </c>
-      <c r="Q20">
-        <v>7.890040192858777</v>
-      </c>
-      <c r="R20">
-        <v>71.01036173572899</v>
-      </c>
-      <c r="S20">
-        <v>0.005313120894449539</v>
-      </c>
-      <c r="T20">
-        <v>0.005869905195935345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>31.72585433333333</v>
-      </c>
-      <c r="H21">
-        <v>95.17756299999999</v>
-      </c>
-      <c r="I21">
-        <v>0.1493347005616749</v>
-      </c>
-      <c r="J21">
-        <v>0.1649841123841474</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>6.649330666666667</v>
-      </c>
-      <c r="N21">
-        <v>19.947992</v>
-      </c>
-      <c r="O21">
-        <v>0.951263872921625</v>
-      </c>
-      <c r="P21">
-        <v>0.9512638729216248</v>
-      </c>
-      <c r="Q21">
-        <v>210.9556961448329</v>
-      </c>
-      <c r="R21">
-        <v>1898.601265303496</v>
-      </c>
-      <c r="S21">
-        <v>0.1420567056178901</v>
-      </c>
-      <c r="T21">
-        <v>0.1569434257170807</v>
+        <v>0.1412060519772498</v>
       </c>
     </row>
   </sheetData>
